--- a/SEP/Team Member Evaluation/HiepTa_Evaluation.xlsx
+++ b/SEP/Team Member Evaluation/HiepTa_Evaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Student ID</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Làm việc siêng năng, hăng hái. Có tinh thần, trách nhiệm cao trong công việc. Giúp đỡ mọi người trong những lúc khó khăn trong công việc nhóm</t>
-  </si>
-  <si>
-    <t>96</t>
   </si>
   <si>
     <t>100</t>
@@ -246,17 +243,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +559,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,37 +589,37 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -632,7 +629,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>19</v>
@@ -642,7 +639,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -652,17 +649,17 @@
         <v>92</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -675,14 +672,14 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -692,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>18</v>
